--- a/resources/DatasetTemplate/submission.xlsx
+++ b/resources/DatasetTemplate/submission.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Submission Item</t>
-  </si>
-  <si>
-    <t>Definition</t>
+    <t>Metadata element</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Value</t>

--- a/resources/DatasetTemplate/submission.xlsx
+++ b/resources/DatasetTemplate/submission.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Metadata element</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Submission Item</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
   <si>
     <t>Value</t>

--- a/resources/DatasetTemplate/submission.xlsx
+++ b/resources/DatasetTemplate/submission.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,10 +31,40 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPARC Award number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grant number supporting the milestone</t>
+    <t xml:space="preserve">SPARC award number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grant number supporting the milestone. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EXTERNAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> if dataset is not from SPARC.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Milestone achieved</t>
@@ -56,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -81,24 +111,17 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="13.95"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13.95"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -157,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,24 +189,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,66 +274,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="100" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="86.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/resources/DatasetTemplate/submission.xlsx
+++ b/resources/DatasetTemplate/submission.xlsx
@@ -1,115 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Submission Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consortium data standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the consortium data standard under which this dataset will be processed. Examples: SPARC, HEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funding consortium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTERNAL or examples: SPARC, SPARC-2, VESPA, REVA, HORNET, HEAL, HEAL-REJOIN, HEAL-PRECISION, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Award number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary grant number supporting the milestone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milestone achieved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From milestones supplied to NIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milestone completion date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of milestone completion. Refer to your consortium for detailed information.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,14 +71,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -137,64 +86,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -366,86 +310,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.25"/>
+    <col width="30.77" customWidth="1" style="6" min="1" max="1"/>
+    <col width="42.68" customWidth="1" style="6" min="2" max="2"/>
+    <col width="28.25" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" ht="18" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Submission Item</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="50.25" customHeight="1" s="7">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Consortium data standard</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Name of the consortium data standard under which this dataset will be processed. Examples: SPARC, HEAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="33.75" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Funding consortium </t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>EXTERNAL or examples: SPARC, SPARC-2, VESPA, REVA, HORNET, HEAL, HEAL-REJOIN, HEAL-PRECISION, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="33.75" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Award number</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Primary grant number supporting the milestone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Milestone achieved</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>From milestones supplied to NIH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="33.75" customHeight="1" s="7">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Milestone completion date</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Date of milestone completion. Refer to your consortium for detailed information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" s="7"/>
+    <row r="8" ht="17.25" customHeight="1" s="7"/>
+    <row r="9" ht="17.25" customHeight="1" s="7"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/resources/DatasetTemplate/submission.xlsx
+++ b/resources/DatasetTemplate/submission.xlsx
@@ -318,9 +318,9 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
